--- a/artfynd/A 28288-2022.xlsx
+++ b/artfynd/A 28288-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56145688</v>
+        <v>56145686</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>78570</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>519692.7063680181</v>
+        <v>519934.1952165876</v>
       </c>
       <c r="R2" t="n">
-        <v>7139529.987269584</v>
+        <v>7139783.894726455</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>låga</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56145686</v>
+        <v>56145687</v>
       </c>
       <c r="B3" t="n">
-        <v>78570</v>
+        <v>81236</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,21 +822,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>519934.1952165876</v>
+        <v>519773.0516826176</v>
       </c>
       <c r="R3" t="n">
-        <v>7139783.894726455</v>
+        <v>7139638.717342441</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -910,7 +910,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56145687</v>
+        <v>56145688</v>
       </c>
       <c r="B4" t="n">
-        <v>81236</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,21 +948,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>519773.0516826176</v>
+        <v>519692.7063680181</v>
       </c>
       <c r="R4" t="n">
-        <v>7139638.717342441</v>
+        <v>7139529.987269584</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>låga</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>

--- a/artfynd/A 28288-2022.xlsx
+++ b/artfynd/A 28288-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56145686</v>
+        <v>56145688</v>
       </c>
       <c r="B2" t="n">
-        <v>78570</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>519934.1952165876</v>
+        <v>519692.7063680181</v>
       </c>
       <c r="R2" t="n">
-        <v>7139783.894726455</v>
+        <v>7139529.987269584</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>låga</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56145687</v>
+        <v>56145686</v>
       </c>
       <c r="B3" t="n">
-        <v>81236</v>
+        <v>78570</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,21 +822,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>2081</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>519773.0516826176</v>
+        <v>519934.1952165876</v>
       </c>
       <c r="R3" t="n">
-        <v>7139638.717342441</v>
+        <v>7139783.894726455</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -910,7 +910,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56145688</v>
+        <v>56145687</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>81236</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,21 +948,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>519692.7063680181</v>
+        <v>519773.0516826176</v>
       </c>
       <c r="R4" t="n">
-        <v>7139529.987269584</v>
+        <v>7139638.717342441</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>låga</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
